--- a/inst/etc/WFO.example.xlsx
+++ b/inst/etc/WFO.example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Roeland\R\World Flora Online\WorldFlora\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Roeland\R\World Flora Online\WorldFlora\inst\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E4B4C49-71A6-490C-8767-2000895295FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D546AB-E56F-458A-BAF5-C33265E6EC26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AED085D5-9804-4A11-A391-E20EA32D3F46}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="119">
   <si>
     <t>taxonID</t>
   </si>
@@ -373,6 +373,21 @@
   </si>
   <si>
     <t>http://www.theplantlist.org/tpl1.1/record/tro-4100035</t>
+  </si>
+  <si>
+    <t>30003057-2</t>
+  </si>
+  <si>
+    <t>wfo-7000000532</t>
+  </si>
+  <si>
+    <t>L.</t>
+  </si>
+  <si>
+    <t>Sp. Pl. 1: 473. 1753. (1 May 1753)</t>
+  </si>
+  <si>
+    <t>http://www.theplantlist.org/1.1/browse/A/Rosaceae/Prunus/</t>
   </si>
 </sst>
 </file>
@@ -725,11 +740,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FBAA6F-E156-4CF5-B0EC-BE9229548151}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="51" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1316,6 +1356,38 @@
       </c>
       <c r="S13" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" t="s">
+        <v>117</v>
+      </c>
+      <c r="N14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
